--- a/medicine/Psychotrope/Château_de_Villars-Fontaine/Château_de_Villars-Fontaine.xlsx
+++ b/medicine/Psychotrope/Château_de_Villars-Fontaine/Château_de_Villars-Fontaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Villars-Fontaine</t>
+          <t>Château_de_Villars-Fontaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Villars-Fontaine est un château moderne situé à Villars-Fontaine (Côte-d'Or) en Bourgogne-Franche-Comté.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Villars-Fontaine</t>
+          <t>Château_de_Villars-Fontaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château[2] est implanté 1 rue de Vergy au nord-ouest du village, en rive ouest de la RD35 et sur les coteaux proches du Meuzin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château est implanté 1 rue de Vergy au nord-ouest du village, en rive ouest de la RD35 et sur les coteaux proches du Meuzin.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Villars-Fontaine</t>
+          <t>Château_de_Villars-Fontaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Moyen Âge une puissante forteresse de la colline de Vergy, bastion de la famille, abrite la congrégation des chanoines du chapitre collégial de Saint-Denis. En 1609, Henri IV la fait raser et les bâtiments des chanoines sont vendus à Antoine de Latour qui les transforme en château que Pierre Mongeard rachète en 1864. Viticulteur et œnologue reconnu et atypique, Bernard Hudelot (1942-2019) achète le château qui unifie le domaine viticole de 33 hectares qu'il a créé progressivement depuis 1971 autour de Villars-Fontaine, son village natal[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge une puissante forteresse de la colline de Vergy, bastion de la famille, abrite la congrégation des chanoines du chapitre collégial de Saint-Denis. En 1609, Henri IV la fait raser et les bâtiments des chanoines sont vendus à Antoine de Latour qui les transforme en château que Pierre Mongeard rachète en 1864. Viticulteur et œnologue reconnu et atypique, Bernard Hudelot (1942-2019) achète le château qui unifie le domaine viticole de 33 hectares qu'il a créé progressivement depuis 1971 autour de Villars-Fontaine, son village natal,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Villars-Fontaine</t>
+          <t>Château_de_Villars-Fontaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cellier des chanoines est vouté d’arêtes avec piliers carrés. En sous-sol, deux caves voutées plein cintre parallèles sont reliées par deux passages. Sur ces éléments du  XIIe siècle, le château de plan rectangulaire comprend un rez-de-chaussée et trois étages dont un de comble percé de lucarnes sous toit à croupes couvert de tuiles plates.
-Les communs comprennent plusieurs bâtiments rectangulaires avec toits à longs-pans. Celui du sud accueille la chapelle[2].
+Les communs comprennent plusieurs bâtiments rectangulaires avec toits à longs-pans. Celui du sud accueille la chapelle.
 </t>
         </is>
       </c>
